--- a/static/file/物品资料表.xlsx
+++ b/static/file/物品资料表.xlsx
@@ -1,36 +1,481 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
+  </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525" iterate="1" iterateCount="1" iterateDelta="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>物料编码(必填)</t>
+  </si>
+  <si>
+    <t>条形码</t>
+  </si>
+  <si>
+    <t>商品名称(必填)</t>
+  </si>
+  <si>
+    <t>型号编号id</t>
+  </si>
+  <si>
+    <t>质保期(天数)</t>
+  </si>
+  <si>
+    <t>重量(保留两位小数)</t>
+  </si>
+  <si>
+    <t>体积(保留两位小数)</t>
+  </si>
+  <si>
+    <t>会员价</t>
+  </si>
+  <si>
+    <t>出厂价(必填)</t>
+  </si>
+  <si>
+    <t>批发价</t>
+  </si>
+  <si>
+    <t>销售价(必填)</t>
+  </si>
+  <si>
+    <t>最低价</t>
+  </si>
+  <si>
+    <t>档次级别编号(id)</t>
+  </si>
+  <si>
+    <t>基本计量单位编号(id)(必填)</t>
+  </si>
+  <si>
+    <t>销售计量单位编号(id)</t>
+  </si>
+  <si>
+    <t>库存计量单位编号(id)</t>
+  </si>
+  <si>
+    <t>生产计量单位编号(id)</t>
+  </si>
+  <si>
+    <t>来源(2生产3采购)</t>
+  </si>
+  <si>
+    <t>成本核算计价方式(1约当产量法，2定额成本法，3定额比例法)(必填)</t>
+  </si>
+  <si>
+    <t>上下架(1上架，2下架)</t>
+  </si>
+  <si>
+    <t>是否适用批次(1使用2不使用)(必填)</t>
+  </si>
+  <si>
+    <t>有效天数(必填)</t>
+  </si>
+  <si>
+    <t>采购周期(天)</t>
+  </si>
+  <si>
+    <t>保养周期(天数)</t>
+  </si>
+  <si>
+    <t>1可以作为赠品，2不可以</t>
+  </si>
+  <si>
+    <t>生产能力(日产量)</t>
+  </si>
+  <si>
+    <t>生产中心编号(id)</t>
+  </si>
+  <si>
+    <t>绩效分</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>种类id(必填)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -38,18 +483,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,127 +1111,144 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="SheetJS"/>
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="7.83333333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="29.625" customWidth="1"/>
+    <col min="15" max="15" width="22.75" customWidth="1"/>
+    <col min="16" max="16" width="23.625" customWidth="1"/>
+    <col min="17" max="17" width="22.125" customWidth="1"/>
+    <col min="18" max="18" width="23.375" customWidth="1"/>
+    <col min="19" max="19" width="67.375" customWidth="1"/>
+    <col min="20" max="20" width="21.875" customWidth="1"/>
+    <col min="21" max="21" width="33" customWidth="1"/>
+    <col min="22" max="22" width="18.5" customWidth="1"/>
+    <col min="23" max="23" width="18.875" customWidth="1"/>
+    <col min="24" max="24" width="17.75" customWidth="1"/>
+    <col min="25" max="25" width="23" customWidth="1"/>
+    <col min="26" max="26" width="20.75" customWidth="1"/>
+    <col min="27" max="27" width="20" customWidth="1"/>
+    <col min="28" max="28" width="12.375" customWidth="1"/>
+    <col min="30" max="30" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>物料编码</v>
-      </c>
-      <c r="B1" t="str">
-        <v>产品名称</v>
-      </c>
-      <c r="C1" t="str">
-        <v>物品分类</v>
-      </c>
-      <c r="D1" t="str">
-        <v>规格型号</v>
-      </c>
-      <c r="E1" t="str">
-        <v>颜色</v>
-      </c>
-      <c r="F1" t="str">
-        <v>绩效分</v>
-      </c>
-      <c r="G1" t="str">
-        <v>商品积分</v>
-      </c>
-      <c r="H1" t="str">
-        <v>成本价</v>
-      </c>
-      <c r="I1" t="str">
-        <v>采购价</v>
-      </c>
-      <c r="J1" t="str">
-        <v>创建者</v>
-      </c>
-      <c r="K1" t="str">
-        <v>创建时间</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>789</v>
-      </c>
-      <c r="B2" t="str">
-        <v>789</v>
-      </c>
-      <c r="C2" t="str">
-        <v>物品2</v>
-      </c>
-      <c r="D2" t="str">
-        <v>规格1</v>
-      </c>
-      <c r="F2">
-        <v>123</v>
-      </c>
-      <c r="G2">
-        <v>123</v>
-      </c>
-      <c r="H2">
-        <v>123</v>
-      </c>
-      <c r="I2">
-        <v>123</v>
-      </c>
-      <c r="K2" t="str">
-        <v>2019-03-06</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>1234565</v>
-      </c>
-      <c r="B3" t="str">
-        <v>1234565</v>
-      </c>
-      <c r="C3" t="str">
-        <v>物品1</v>
-      </c>
-      <c r="D3" t="str">
-        <v>规格2</v>
-      </c>
-      <c r="E3" t="str">
-        <v>red</v>
-      </c>
-      <c r="F3">
-        <v>1234565</v>
-      </c>
-      <c r="G3">
-        <v>1234565</v>
-      </c>
-      <c r="H3">
-        <v>1234565</v>
-      </c>
-      <c r="I3">
-        <v>1234565</v>
-      </c>
-      <c r="K3" t="str">
-        <v>2019-03-06</v>
+    <row r="1" spans="1:30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/static/file/物品资料表.xlsx
+++ b/static/file/物品资料表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\WeChat Files\shenzp5678\FileStorage\File\2019-06\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56BEAC6-5B45-438E-8428-6FFED37C1E7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>物料编码(必填)</t>
   </si>
@@ -61,15 +55,6 @@
     <t>基本计量单位编号(id)(必填)</t>
   </si>
   <si>
-    <t>销售计量单位编号(id)</t>
-  </si>
-  <si>
-    <t>库存计量单位编号(id)</t>
-  </si>
-  <si>
-    <t>生产计量单位编号(id)</t>
-  </si>
-  <si>
     <t>来源(2生产3采购)</t>
   </si>
   <si>
@@ -82,7 +67,7 @@
     <t>是否适用批次(1使用2不使用)(必填)</t>
   </si>
   <si>
-    <t>有效天数(必填)</t>
+    <t>有效天数</t>
   </si>
   <si>
     <t>采购周期(天)</t>
@@ -112,8 +97,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,29 +118,359 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -157,32 +478,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -504,149 +1111,138 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8333333333333" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="22.08203125" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="15.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="29.58203125" customWidth="1"/>
-    <col min="15" max="15" width="22.75" customWidth="1"/>
-    <col min="16" max="16" width="23.58203125" customWidth="1"/>
-    <col min="17" max="17" width="22.08203125" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" customWidth="1"/>
-    <col min="19" max="19" width="67.33203125" customWidth="1"/>
-    <col min="20" max="20" width="21.83203125" customWidth="1"/>
-    <col min="21" max="21" width="33" customWidth="1"/>
-    <col min="22" max="22" width="18.5" customWidth="1"/>
-    <col min="23" max="23" width="18.83203125" customWidth="1"/>
-    <col min="24" max="24" width="17.75" customWidth="1"/>
-    <col min="25" max="25" width="23" customWidth="1"/>
-    <col min="26" max="26" width="20.75" customWidth="1"/>
-    <col min="27" max="27" width="20" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" customWidth="1"/>
-    <col min="29" max="29" width="12.83203125" customWidth="1"/>
-    <col min="30" max="30" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
+    <col min="14" max="14" width="22.0833333333333" customWidth="1"/>
+    <col min="15" max="15" width="39.125" customWidth="1"/>
+    <col min="16" max="16" width="67.3333333333333" customWidth="1"/>
+    <col min="17" max="17" width="21.8333333333333" customWidth="1"/>
+    <col min="18" max="18" width="33" customWidth="1"/>
+    <col min="19" max="19" width="18.5" customWidth="1"/>
+    <col min="20" max="20" width="18.8333333333333" customWidth="1"/>
+    <col min="21" max="21" width="24.25" customWidth="1"/>
+    <col min="22" max="22" width="23" customWidth="1"/>
+    <col min="23" max="23" width="20.75" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="25" max="25" width="12.3333333333333" customWidth="1"/>
+    <col min="26" max="26" width="12.8333333333333" customWidth="1"/>
+    <col min="27" max="27" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/static/file/物品资料表.xlsx
+++ b/static/file/物品资料表.xlsx
@@ -14,9 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>物料编码(必填)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>开始编码（01整车，02零部件，03紧固件）（必填）</t>
+  </si>
+  <si>
+    <t>分类名称（必填）</t>
+  </si>
+  <si>
+    <t>车辆型号（01，02填）</t>
+  </si>
+  <si>
+    <t>配置（01填）</t>
+  </si>
+  <si>
+    <t>版本（01，02填）</t>
+  </si>
+  <si>
+    <t>颜色（01，02填）</t>
+  </si>
+  <si>
+    <t>直径规格（03填）</t>
+  </si>
+  <si>
+    <t>长度规格（03填）</t>
+  </si>
+  <si>
+    <t>性能等级（03填）</t>
+  </si>
+  <si>
+    <t>表面处理（03填）</t>
   </si>
   <si>
     <t>条形码</t>
@@ -52,7 +79,7 @@
     <t>档次级别编号(id)</t>
   </si>
   <si>
-    <t>基本计量单位编号(id)(必填)</t>
+    <t>基本计量单位名称（必填）</t>
   </si>
   <si>
     <t>来源(2生产3采购)</t>
@@ -82,16 +109,13 @@
     <t>生产能力(日产量)</t>
   </si>
   <si>
-    <t>生产中心序号(id)</t>
-  </si>
-  <si>
-    <t>绩效分</t>
-  </si>
-  <si>
-    <t>积分</t>
-  </si>
-  <si>
-    <t>种类id(必填)</t>
+    <t>生产中心</t>
+  </si>
+  <si>
+    <t>绩效分（分数）</t>
+  </si>
+  <si>
+    <t>积分（分数）</t>
   </si>
 </sst>
 </file>
@@ -99,12 +123,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,66 +142,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +166,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -214,63 +271,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,15 +493,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,21 +507,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +535,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -553,11 +572,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,161 +596,164 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1117,44 +1137,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="22.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="9" width="15.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="17.125" customWidth="1"/>
-    <col min="13" max="13" width="32.625" customWidth="1"/>
-    <col min="14" max="14" width="22.0833333333333" customWidth="1"/>
-    <col min="15" max="15" width="39.125" customWidth="1"/>
-    <col min="16" max="16" width="67.3333333333333" customWidth="1"/>
-    <col min="17" max="17" width="21.8333333333333" customWidth="1"/>
-    <col min="18" max="18" width="33" customWidth="1"/>
-    <col min="19" max="19" width="18.5" customWidth="1"/>
-    <col min="20" max="20" width="18.8333333333333" customWidth="1"/>
-    <col min="21" max="21" width="24.25" customWidth="1"/>
-    <col min="22" max="22" width="23" customWidth="1"/>
-    <col min="23" max="23" width="20.75" customWidth="1"/>
-    <col min="24" max="24" width="20" customWidth="1"/>
-    <col min="25" max="25" width="12.3333333333333" customWidth="1"/>
-    <col min="26" max="26" width="12.8333333333333" customWidth="1"/>
-    <col min="27" max="27" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="20.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.4166666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5833333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.0833333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.0833333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="21.5" customWidth="1"/>
+    <col min="16" max="16" width="22.0833333333333" customWidth="1"/>
+    <col min="17" max="17" width="19.75" customWidth="1"/>
+    <col min="18" max="18" width="9.33333333333333" customWidth="1"/>
+    <col min="19" max="19" width="13.5833333333333" customWidth="1"/>
+    <col min="20" max="20" width="14.5" customWidth="1"/>
+    <col min="21" max="21" width="17.125" customWidth="1"/>
+    <col min="22" max="22" width="32.625" customWidth="1"/>
+    <col min="23" max="23" width="22.0833333333333" customWidth="1"/>
+    <col min="24" max="24" width="20.25" customWidth="1"/>
+    <col min="25" max="25" width="10.4166666666667" customWidth="1"/>
+    <col min="26" max="26" width="33.3333333333333" customWidth="1"/>
+    <col min="27" max="27" width="12.1666666666667" customWidth="1"/>
+    <col min="28" max="28" width="18.75" customWidth="1"/>
+    <col min="29" max="29" width="14.1666666666667" customWidth="1"/>
+    <col min="30" max="30" width="15.0833333333333" customWidth="1"/>
+    <col min="31" max="31" width="23" customWidth="1"/>
+    <col min="32" max="32" width="20.75" customWidth="1"/>
+    <col min="33" max="33" width="20" customWidth="1"/>
+    <col min="34" max="34" width="12.3333333333333" customWidth="1"/>
+    <col min="35" max="35" width="12.8333333333333" customWidth="1"/>
+    <col min="36" max="36" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" ht="42.75" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1185,60 +1214,111 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="4"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/file/物品资料表.xlsx
+++ b/static/file/物品资料表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t>开始编码（01整车，02零部件，03紧固件）（必填）</t>
+    <t>开始编码（01整车，02零部件，03紧固件，05电池）（必填）</t>
   </si>
   <si>
     <t>分类名称（必填）</t>
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -143,15 +143,143 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,134 +292,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,13 +302,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,169 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,24 +555,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,194 +579,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,10 +1140,10 @@
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="20.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.8333333333333" style="1" customWidth="1"/>
@@ -1183,7 +1183,7 @@
     <col min="36" max="36" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" spans="1:34">
+    <row r="1" ht="62.4" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/static/file/物品资料表.xlsx
+++ b/static/file/物品资料表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t>开始编码（01整车，02零部件，03紧固件，05电池）（必填）</t>
+    <t>开始编码（01整车，02零部件，03紧固件）（必填）</t>
   </si>
   <si>
     <t>分类名称（必填）</t>
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -143,43 +143,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,18 +201,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,7 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,49 +280,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -302,43 +302,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,37 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,97 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,48 +493,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,11 +513,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,165 +550,194 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,10 +1140,10 @@
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="20.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.8333333333333" style="1" customWidth="1"/>
@@ -1183,7 +1183,7 @@
     <col min="36" max="36" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="62.4" spans="1:34">
+    <row r="1" ht="42.75" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
